--- a/biology/Botanique/Dunaliella/Dunaliella.xlsx
+++ b/biology/Botanique/Dunaliella/Dunaliella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dunaliella est un genre d'algues vertes de la famille des Dunaliellaceae.
 L'espèce Dunaliella salina, lorsqu'elle prolifère, est à l'origine de la couleur rose/rouge caractéristique des marais salants.
@@ -512,9 +524,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Dunaliella tertiolecta capable d'accumuler dans certaines circonstances des lipides, fait l'objet de plusieurs recherches en vue de produire du biodiesel[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Dunaliella tertiolecta capable d'accumuler dans certaines circonstances des lipides, fait l'objet de plusieurs recherches en vue de produire du biodiesel.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (7 novembre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (7 novembre 2013) :
 Dunaliella acidophila (Kalina) Massyuk
 Dunaliella assymetica Massyuk
 Dunaliella baasbeckingii Massyuk
@@ -569,11 +585,11 @@
 Dunaliella tertiolecta Butcher
 Dunaliella turcomanica Massyuk
 Dunaliella viridis Teodoresco
-Selon ITIS      (7 novembre 2013)[3] :
+Selon ITIS      (7 novembre 2013) :
 Dunaliella bardawil
 Dunaliella salina (Dunal) Teodoresco
 Dunaliella tertiolecta Butcher
-Selon NCBI  (7 novembre 2013)[4] :
+Selon NCBI  (7 novembre 2013) :
 Dunaliella acidophila
 Dunaliella atacamensis
 Dunaliella bardawil
@@ -590,7 +606,7 @@
 Dunaliella salina
 Dunaliella tertiolecta
 Dunaliella viridis
-Selon World Register of Marine Species                               (7 novembre 2013)[5] :
+Selon World Register of Marine Species                               (7 novembre 2013) :
 Dunaliella baasbeckingii Massyuk, 1973
 Dunaliella maritima Massyuk, 1973
 Dunaliella primolecta Butcher, 1959
